--- a/Data_Record/Os_J_head.xlsx
+++ b/Data_Record/Os_J_head.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HWX\Documents\GitHub\2023_HWX\Data_Record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F5C9A8-9B0D-4E58-A61B-CBC1D600DB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC81E95-1BBD-42DC-AD7D-544F9707A7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="5385" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="38616" windowHeight="21372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>电机角度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,1473 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$17:$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>6158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5961</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5946</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5919</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5877</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5842</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5807</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5737</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5709</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5691</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5604</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5569</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5527</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5499</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5478</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5464</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5429</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5401</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5373</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5338</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5296</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5233</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5191</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5149</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5086</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4995</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-4800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3850</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3850</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2850</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3560</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3680</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-4800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3850</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3850</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2850</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3560</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3680</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B84-45EB-9756-452158920C81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1590421519"/>
+        <c:axId val="1590419599"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>电机角度</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$17:$D$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>-4800</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-2360</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-4000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-4250</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-2400</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-4300</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-3850</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-3850</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-2950</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-3220</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-3650</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-3000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-2850</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-3800</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-3560</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-3110</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>-2200</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-2600</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-3200</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-2100</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>-3500</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>-3200</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>-3680</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>-2300</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>-3300</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-2400</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>-2200</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>-2600</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>-1300</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>-1700</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>-1500</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>-1200</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>-800</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$17:$C$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>6158</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6116</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6080</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6024</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5989</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5961</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5946</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5919</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5877</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5842</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5807</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>5779</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>5737</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>5709</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5691</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>5667</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5639</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>5604</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>5569</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5527</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5499</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5478</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5464</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>5429</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>5401</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>5373</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>5338</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>5296</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5233</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>5191</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>5149</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5086</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4995</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-1B84-45EB-9756-452158920C81}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1590421519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1590419599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1590419599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1590421519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932B12C0-B4E5-3BC2-129F-F8065E2CABCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,46 +1842,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>6158</v>
+      </c>
+      <c r="C2">
+        <v>6116</v>
+      </c>
+      <c r="D2">
+        <v>6080</v>
+      </c>
+      <c r="E2">
+        <v>6024</v>
+      </c>
+      <c r="F2">
+        <v>5989</v>
+      </c>
+      <c r="G2">
+        <v>5961</v>
+      </c>
+      <c r="H2">
+        <v>5946</v>
+      </c>
+      <c r="I2">
+        <v>5919</v>
+      </c>
+      <c r="J2">
+        <v>5877</v>
+      </c>
+      <c r="K2">
+        <v>5842</v>
+      </c>
+      <c r="L2">
+        <v>5807</v>
+      </c>
+      <c r="M2">
+        <v>5779</v>
+      </c>
+      <c r="N2">
+        <v>5737</v>
+      </c>
+      <c r="O2">
+        <v>5709</v>
+      </c>
+      <c r="P2">
+        <v>5691</v>
+      </c>
+      <c r="Q2">
+        <v>5667</v>
+      </c>
+      <c r="R2">
+        <v>5639</v>
+      </c>
+      <c r="S2">
+        <v>5604</v>
+      </c>
+      <c r="T2">
+        <v>5569</v>
+      </c>
+      <c r="U2">
+        <v>5527</v>
+      </c>
+      <c r="V2">
+        <v>5499</v>
+      </c>
+      <c r="W2">
+        <v>5478</v>
+      </c>
+      <c r="X2">
+        <v>5464</v>
+      </c>
+      <c r="Y2">
+        <v>5429</v>
+      </c>
+      <c r="Z2">
+        <v>5401</v>
+      </c>
+      <c r="AA2">
+        <v>5373</v>
+      </c>
+      <c r="AB2">
+        <v>5338</v>
+      </c>
+      <c r="AC2">
+        <v>5296</v>
+      </c>
+      <c r="AD2">
+        <v>5233</v>
+      </c>
+      <c r="AE2">
+        <v>5191</v>
+      </c>
+      <c r="AF2">
+        <v>5149</v>
+      </c>
+      <c r="AG2">
+        <v>5086</v>
+      </c>
+      <c r="AH2">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>-4800</v>
+      </c>
+      <c r="C3">
+        <v>-2360</v>
+      </c>
+      <c r="D3">
+        <v>-4000</v>
+      </c>
+      <c r="E3">
+        <v>-4250</v>
+      </c>
+      <c r="F3">
+        <v>-2400</v>
+      </c>
+      <c r="G3">
+        <v>-4300</v>
+      </c>
+      <c r="H3">
+        <v>-3850</v>
+      </c>
+      <c r="I3">
+        <v>-3850</v>
+      </c>
+      <c r="J3">
+        <v>-2950</v>
+      </c>
+      <c r="K3">
+        <v>-3220</v>
+      </c>
+      <c r="L3">
+        <v>-3650</v>
+      </c>
+      <c r="M3">
+        <v>-3000</v>
+      </c>
+      <c r="N3">
+        <v>-2850</v>
+      </c>
+      <c r="O3">
+        <v>-3800</v>
+      </c>
+      <c r="P3">
+        <v>-3560</v>
+      </c>
+      <c r="Q3">
+        <v>-3110</v>
+      </c>
+      <c r="R3">
+        <v>-2200</v>
+      </c>
+      <c r="S3">
+        <v>-2600</v>
+      </c>
+      <c r="T3">
+        <v>-3200</v>
+      </c>
+      <c r="U3">
+        <v>-2100</v>
+      </c>
+      <c r="V3">
+        <v>-3500</v>
+      </c>
+      <c r="W3">
+        <v>-3200</v>
+      </c>
+      <c r="X3">
+        <v>-3680</v>
+      </c>
+      <c r="Y3">
+        <v>-2300</v>
+      </c>
+      <c r="Z3">
+        <v>-3300</v>
+      </c>
+      <c r="AA3">
+        <v>-2400</v>
+      </c>
+      <c r="AB3">
+        <v>-2200</v>
+      </c>
+      <c r="AC3">
+        <v>-2600</v>
+      </c>
+      <c r="AD3">
+        <v>-1300</v>
+      </c>
+      <c r="AE3">
+        <v>-1700</v>
+      </c>
+      <c r="AF3">
+        <v>-1500</v>
+      </c>
+      <c r="AG3">
+        <v>-1200</v>
+      </c>
+      <c r="AH3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>6158</v>
+      </c>
+      <c r="D17">
+        <v>-4800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>6116</v>
+      </c>
+      <c r="D18">
+        <v>-2360</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>6080</v>
+      </c>
+      <c r="D19">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>6024</v>
+      </c>
+      <c r="D20">
+        <v>-4250</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>5989</v>
+      </c>
+      <c r="D21">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>5961</v>
+      </c>
+      <c r="D22">
+        <v>-4300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>5946</v>
+      </c>
+      <c r="D23">
+        <v>-3850</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>5919</v>
+      </c>
+      <c r="D24">
+        <v>-3850</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>5877</v>
+      </c>
+      <c r="D25">
+        <v>-2950</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>5842</v>
+      </c>
+      <c r="D26">
+        <v>-3220</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>5807</v>
+      </c>
+      <c r="D27">
+        <v>-3650</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>5779</v>
+      </c>
+      <c r="D28">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>5737</v>
+      </c>
+      <c r="D29">
+        <v>-2850</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>5709</v>
+      </c>
+      <c r="D30">
+        <v>-3800</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>5691</v>
+      </c>
+      <c r="D31">
+        <v>-3560</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>5667</v>
+      </c>
+      <c r="D32">
+        <v>-3110</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>5639</v>
+      </c>
+      <c r="D33">
+        <v>-2200</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>5604</v>
+      </c>
+      <c r="D34">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>5569</v>
+      </c>
+      <c r="D35">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>5527</v>
+      </c>
+      <c r="D36">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>5499</v>
+      </c>
+      <c r="D37">
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>5478</v>
+      </c>
+      <c r="D38">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>5464</v>
+      </c>
+      <c r="D39">
+        <v>-3680</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>5429</v>
+      </c>
+      <c r="D40">
+        <v>-2300</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>5401</v>
+      </c>
+      <c r="D41">
+        <v>-3300</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>5373</v>
+      </c>
+      <c r="D42">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>5338</v>
+      </c>
+      <c r="D43">
+        <v>-2200</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>5296</v>
+      </c>
+      <c r="D44">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>5233</v>
+      </c>
+      <c r="D45">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>5191</v>
+      </c>
+      <c r="D46">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>5149</v>
+      </c>
+      <c r="D47">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>5086</v>
+      </c>
+      <c r="D48">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>4995</v>
+      </c>
+      <c r="D49">
+        <v>-800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>